--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59857.42713048581</v>
+        <v>59857.42713048583</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="D2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532518</v>
       </c>
       <c r="E2" t="n">
         <v>40835.24109532517</v>
@@ -26326,7 +26328,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="G2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532515</v>
       </c>
       <c r="H2" t="n">
         <v>40835.24109532517</v>
@@ -26341,10 +26343,10 @@
         <v>40835.24109532517</v>
       </c>
       <c r="L2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="M2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="N2" t="n">
         <v>40835.24109532517</v>
@@ -26353,7 +26355,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="P2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="F4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="H4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="J4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="K4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="L4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="M4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="N4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="O4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="P4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15478.60395763326</v>
+        <v>-15478.60395763325</v>
       </c>
       <c r="C6" t="n">
-        <v>-15478.60395763326</v>
+        <v>-15478.60395763325</v>
       </c>
       <c r="D6" t="n">
-        <v>-15478.60395763326</v>
+        <v>-15478.60395763324</v>
       </c>
       <c r="E6" t="n">
-        <v>18148.99604236674</v>
+        <v>18148.99604236675</v>
       </c>
       <c r="F6" t="n">
         <v>18148.99604236674</v>
       </c>
       <c r="G6" t="n">
-        <v>18148.99604236674</v>
+        <v>18148.99604236673</v>
       </c>
       <c r="H6" t="n">
         <v>18148.99604236674</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59857.42713048583</v>
+        <v>-62742.59344812214</v>
       </c>
     </row>
     <row r="7">
@@ -26319,16 +26319,16 @@
         <v>40835.24109532517</v>
       </c>
       <c r="D2" t="n">
-        <v>40835.24109532518</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="E2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="F2" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="G2" t="n">
-        <v>40835.24109532515</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="H2" t="n">
         <v>40835.24109532517</v>
@@ -26346,16 +26346,16 @@
         <v>40835.24109532516</v>
       </c>
       <c r="M2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="N2" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="O2" t="n">
+        <v>40835.24109532516</v>
+      </c>
+      <c r="P2" t="n">
         <v>40835.24109532517</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40835.24109532516</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
@@ -26432,31 +26432,31 @@
         <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="H4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="J4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="K4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="L4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="M4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="N4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="O4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="P4" t="n">
         <v>22686.24505295842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15478.60395763325</v>
+        <v>-30131.95645939612</v>
       </c>
       <c r="C6" t="n">
-        <v>-15478.60395763325</v>
+        <v>-30131.95645939611</v>
       </c>
       <c r="D6" t="n">
-        <v>-15478.60395763324</v>
+        <v>-30131.95645939612</v>
       </c>
       <c r="E6" t="n">
-        <v>18148.99604236675</v>
+        <v>3495.643540603876</v>
       </c>
       <c r="F6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603884</v>
       </c>
       <c r="G6" t="n">
-        <v>18148.99604236673</v>
+        <v>3495.643540603873</v>
       </c>
       <c r="H6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603884</v>
       </c>
       <c r="I6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.64354060388</v>
       </c>
       <c r="J6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603884</v>
       </c>
       <c r="K6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.64354060388</v>
       </c>
       <c r="L6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603876</v>
       </c>
       <c r="M6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.64354060388</v>
       </c>
       <c r="N6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603884</v>
       </c>
       <c r="O6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603873</v>
       </c>
       <c r="P6" t="n">
-        <v>18148.99604236674</v>
+        <v>3495.643540603884</v>
       </c>
     </row>
   </sheetData>
